--- a/指令.xlsx
+++ b/指令.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\MultiCPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2721144E-0BD7-40B6-A9E4-A82C561C2527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77F480C-5B47-4A55-8139-2A5F9B7FDEFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{558CF807-8AC3-4A38-B5A7-C417620ACF6F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1" xr2:uid="{558CF807-8AC3-4A38-B5A7-C417620ACF6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2050,7 +2050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2129,6 +2129,75 @@
     <xf numFmtId="176" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2138,51 +2207,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2192,31 +2216,16 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2535,14 +2544,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50F3DF9-4FA3-4894-85AF-A88FE59D98B5}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.25" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.75" style="23" customWidth="1"/>
     <col min="9" max="9" width="32.875" style="23" customWidth="1"/>
@@ -2554,22 +2564,22 @@
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="8"/>
@@ -2577,25 +2587,25 @@
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="56" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1"/>
@@ -2603,25 +2613,25 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="29">
+        <v>0</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="21">
-        <v>0</v>
-      </c>
-      <c r="G3" s="21">
+      <c r="F3" s="33">
+        <v>0</v>
+      </c>
+      <c r="G3" s="29">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -2635,25 +2645,25 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21">
-        <v>0</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="29">
+        <v>0</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="21">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21">
+      <c r="F4" s="33">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29">
         <v>100001</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -2667,25 +2677,25 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="21">
-        <v>0</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="29">
+        <v>0</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="21">
-        <v>0</v>
-      </c>
-      <c r="G5" s="21">
+      <c r="F5" s="33">
+        <v>0</v>
+      </c>
+      <c r="G5" s="29">
         <v>100010</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -2699,25 +2709,25 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="21">
-        <v>0</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="29">
+        <v>0</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="21">
-        <v>0</v>
-      </c>
-      <c r="G6" s="21">
+      <c r="F6" s="33">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
         <v>100011</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2731,25 +2741,25 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="21">
-        <v>0</v>
-      </c>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="29">
+        <v>0</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="21">
-        <v>0</v>
-      </c>
-      <c r="G7" s="21">
+      <c r="F7" s="33">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
         <v>100100</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -2763,25 +2773,25 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="21">
-        <v>0</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="29">
+        <v>0</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="21">
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="F8" s="33">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
         <v>100101</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -2795,25 +2805,25 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="21">
-        <v>0</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="29">
+        <v>0</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="21">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21">
+      <c r="F9" s="33">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
         <v>100110</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -2827,25 +2837,25 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="21">
-        <v>0</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="29">
+        <v>0</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
+      <c r="F10" s="33">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
         <v>100111</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -2859,25 +2869,25 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="22">
-        <v>0</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="31">
+        <v>0</v>
+      </c>
+      <c r="C11" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="22">
-        <v>0</v>
-      </c>
-      <c r="G11" s="22">
+      <c r="F11" s="57">
+        <v>0</v>
+      </c>
+      <c r="G11" s="31">
         <v>101010</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -2891,25 +2901,25 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="22">
-        <v>0</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="31">
+        <v>0</v>
+      </c>
+      <c r="C12" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="22">
-        <v>0</v>
-      </c>
-      <c r="G12" s="22">
+      <c r="F12" s="57">
+        <v>0</v>
+      </c>
+      <c r="G12" s="31">
         <v>101011</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -2923,25 +2933,25 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="22">
-        <v>0</v>
-      </c>
-      <c r="C13" s="22">
-        <v>0</v>
-      </c>
-      <c r="D13" s="22" t="s">
+      <c r="B13" s="31">
+        <v>0</v>
+      </c>
+      <c r="C13" s="57">
+        <v>0</v>
+      </c>
+      <c r="D13" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="31">
         <v>0</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -2955,25 +2965,25 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="21">
-        <v>0</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="B14" s="29">
+        <v>0</v>
+      </c>
+      <c r="C14" s="33">
+        <v>0</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="29">
         <v>10</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -2987,25 +2997,25 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="22">
-        <v>0</v>
-      </c>
-      <c r="C15" s="22">
-        <v>0</v>
-      </c>
-      <c r="D15" s="22" t="s">
+      <c r="B15" s="31">
+        <v>0</v>
+      </c>
+      <c r="C15" s="57">
+        <v>0</v>
+      </c>
+      <c r="D15" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="31">
         <v>11</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -3019,25 +3029,25 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="21">
-        <v>0</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="29">
+        <v>0</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="21">
-        <v>0</v>
-      </c>
-      <c r="G16" s="21">
+      <c r="F16" s="33">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
         <v>100</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -3051,25 +3061,25 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="21">
-        <v>0</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="29">
+        <v>0</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="21">
-        <v>0</v>
-      </c>
-      <c r="G17" s="21">
+      <c r="F17" s="33">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29">
         <v>110</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -3083,25 +3093,25 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="22">
-        <v>0</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="31">
+        <v>0</v>
+      </c>
+      <c r="C18" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="22">
-        <v>0</v>
-      </c>
-      <c r="G18" s="22">
+      <c r="F18" s="57">
+        <v>0</v>
+      </c>
+      <c r="G18" s="31">
         <v>111</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -3115,22 +3125,22 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="55">
         <v>0</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="55">
-        <v>0</v>
-      </c>
-      <c r="E19" s="55">
-        <v>0</v>
-      </c>
-      <c r="F19" s="55">
+      <c r="D19" s="58">
+        <v>0</v>
+      </c>
+      <c r="E19" s="58">
+        <v>0</v>
+      </c>
+      <c r="F19" s="58">
         <v>0</v>
       </c>
       <c r="G19" s="55">
@@ -3157,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC62375C-D826-4FEA-935F-0248CA31F307}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3186,20 +3196,20 @@
       <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="29">
         <v>1000</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -3208,11 +3218,11 @@
       <c r="D2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="4" t="s">
         <v>78</v>
       </c>
@@ -3224,10 +3234,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="29">
         <v>1001</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -3236,11 +3246,11 @@
       <c r="D3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="2" t="s">
         <v>82</v>
       </c>
@@ -3252,10 +3262,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="29">
         <v>1100</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -3264,11 +3274,11 @@
       <c r="D4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="4" t="s">
         <v>85</v>
       </c>
@@ -3280,10 +3290,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="29">
         <v>1101</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -3292,11 +3302,11 @@
       <c r="D5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="2" t="s">
         <v>89</v>
       </c>
@@ -3308,10 +3318,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="29">
         <v>1110</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -3320,11 +3330,11 @@
       <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="4" t="s">
         <v>85</v>
       </c>
@@ -3336,23 +3346,23 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="31">
         <v>1111</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="33">
         <v>0</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="5" t="s">
         <v>96</v>
       </c>
@@ -3364,10 +3374,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="31">
         <v>100011</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -3376,11 +3386,11 @@
       <c r="D8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="5" t="s">
         <v>99</v>
       </c>
@@ -3392,10 +3402,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="31">
         <v>100000</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -3404,11 +3414,11 @@
       <c r="D9" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="5" t="s">
         <v>148</v>
       </c>
@@ -3420,10 +3430,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="31">
         <v>101011</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -3432,11 +3442,11 @@
       <c r="D10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="5" t="s">
         <v>102</v>
       </c>
@@ -3448,10 +3458,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="31">
         <v>101000</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -3460,11 +3470,11 @@
       <c r="D11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="5" t="s">
         <v>150</v>
       </c>
@@ -3476,214 +3486,226 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="41">
-        <v>100</v>
-      </c>
-      <c r="C12" s="42">
-        <v>0</v>
-      </c>
-      <c r="D12" s="42">
-        <v>0</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="14"/>
+      <c r="A12" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="31">
+        <v>1010</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="41">
+      <c r="A13" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="31">
+        <v>1011</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="32">
         <v>1</v>
       </c>
-      <c r="C13" s="42">
-        <v>0</v>
-      </c>
-      <c r="D13" s="22">
-        <v>10001</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="37">
-        <v>100</v>
-      </c>
       <c r="C14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0</v>
+      </c>
+      <c r="E14" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="32">
         <v>1</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="33">
         <v>1</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="5"/>
       <c r="I15" s="7"/>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="41">
+      <c r="A16" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="32">
         <v>1</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="22">
-        <v>10001</v>
-      </c>
-      <c r="E16" s="33" t="s">
+      <c r="D16" s="33">
+        <v>10000</v>
+      </c>
+      <c r="E16" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="5"/>
       <c r="I16" s="7"/>
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="41">
-        <v>111</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="42">
-        <v>0</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="A17" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="32">
+        <v>1</v>
+      </c>
+      <c r="C17" s="33">
+        <v>0</v>
+      </c>
+      <c r="D17" s="22">
+        <v>10001</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="5"/>
       <c r="I17" s="7"/>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="41">
-        <v>110</v>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="32">
+        <v>1</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="42">
-        <v>0</v>
-      </c>
-      <c r="E18" s="33" t="s">
+      <c r="D18" s="22">
+        <v>10001</v>
+      </c>
+      <c r="E18" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="5"/>
       <c r="I18" s="7"/>
       <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="41">
-        <v>1</v>
+      <c r="A19" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="31">
+        <v>100</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="42">
-        <v>0</v>
-      </c>
-      <c r="E19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="14"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="41">
-        <v>1</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="42">
-        <v>10000</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7"/>
+      <c r="A20" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="32">
+        <v>100</v>
+      </c>
+      <c r="C20" s="33">
+        <v>0</v>
+      </c>
+      <c r="D20" s="33">
+        <v>0</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="32">
         <v>101</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -3692,11 +3714,11 @@
       <c r="D21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="4" t="s">
         <v>108</v>
       </c>
@@ -3708,86 +3730,74 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="32">
         <v>110</v>
       </c>
-      <c r="B22" s="37">
-        <v>1010</v>
-      </c>
       <c r="C22" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="33">
+        <v>0</v>
+      </c>
+      <c r="E22" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="5" t="s">
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="32">
         <v>111</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="37">
-        <v>1011</v>
-      </c>
       <c r="C23" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="33">
+        <v>0</v>
+      </c>
+      <c r="E23" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>142</v>
-      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E23:G23"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3800,7 +3810,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3818,34 +3828,34 @@
       <c r="A1" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="29">
         <v>10</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="2" t="s">
         <v>117</v>
       </c>
@@ -3857,19 +3867,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="29">
         <v>11</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="5" t="s">
         <v>121</v>
       </c>
@@ -3888,5 +3898,6 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/指令.xlsx
+++ b/指令.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\MultiCPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77F480C-5B47-4A55-8139-2A5F9B7FDEFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBDD6BF-F8B0-413B-86AA-FBA17AC2C842}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1" xr2:uid="{558CF807-8AC3-4A38-B5A7-C417620ACF6F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2" xr2:uid="{558CF807-8AC3-4A38-B5A7-C417620ACF6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="158">
   <si>
     <t>Bit #</t>
   </si>
@@ -1622,6 +1622,18 @@
       </rPr>
       <t>rt=$2, rd=$1</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.jal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.imm，sa前提</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.sb，lb</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2180,6 +2192,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2189,15 +2222,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2214,18 +2238,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2542,10 +2554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50F3DF9-4FA3-4894-85AF-A88FE59D98B5}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2605,7 +2617,7 @@
       <c r="F2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="44" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1"/>
@@ -2875,16 +2887,16 @@
       <c r="B11" s="31">
         <v>0</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="45">
         <v>0</v>
       </c>
       <c r="G11" s="31">
@@ -2907,16 +2919,16 @@
       <c r="B12" s="31">
         <v>0</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="45">
         <v>0</v>
       </c>
       <c r="G12" s="31">
@@ -2939,16 +2951,16 @@
       <c r="B13" s="31">
         <v>0</v>
       </c>
-      <c r="C13" s="57">
-        <v>0</v>
-      </c>
-      <c r="D13" s="57" t="s">
+      <c r="C13" s="45">
+        <v>0</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="45" t="s">
         <v>151</v>
       </c>
       <c r="G13" s="31">
@@ -3003,16 +3015,16 @@
       <c r="B15" s="31">
         <v>0</v>
       </c>
-      <c r="C15" s="57">
-        <v>0</v>
-      </c>
-      <c r="D15" s="57" t="s">
+      <c r="C15" s="45">
+        <v>0</v>
+      </c>
+      <c r="D15" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="45" t="s">
         <v>151</v>
       </c>
       <c r="G15" s="31">
@@ -3099,16 +3111,16 @@
       <c r="B18" s="31">
         <v>0</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="45">
         <v>0</v>
       </c>
       <c r="G18" s="31">
@@ -3128,22 +3140,22 @@
       <c r="A19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="55">
-        <v>0</v>
-      </c>
-      <c r="C19" s="58" t="s">
+      <c r="B19" s="43">
+        <v>0</v>
+      </c>
+      <c r="C19" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="58">
-        <v>0</v>
-      </c>
-      <c r="E19" s="58">
-        <v>0</v>
-      </c>
-      <c r="F19" s="58">
-        <v>0</v>
-      </c>
-      <c r="G19" s="55">
+      <c r="D19" s="46">
+        <v>0</v>
+      </c>
+      <c r="E19" s="46">
+        <v>0</v>
+      </c>
+      <c r="F19" s="46">
+        <v>0</v>
+      </c>
+      <c r="G19" s="43">
         <v>1000</v>
       </c>
       <c r="H19" s="15" t="s">
@@ -3154,6 +3166,21 @@
       </c>
       <c r="J19" s="16" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="23" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3167,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC62375C-D826-4FEA-935F-0248CA31F307}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3196,11 +3223,11 @@
       <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
@@ -3218,11 +3245,11 @@
       <c r="D2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="4" t="s">
         <v>78</v>
       </c>
@@ -3246,11 +3273,11 @@
       <c r="D3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="2" t="s">
         <v>82</v>
       </c>
@@ -3274,11 +3301,11 @@
       <c r="D4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="4" t="s">
         <v>85</v>
       </c>
@@ -3302,11 +3329,11 @@
       <c r="D5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="2" t="s">
         <v>89</v>
       </c>
@@ -3330,11 +3357,11 @@
       <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="4" t="s">
         <v>85</v>
       </c>
@@ -3358,11 +3385,11 @@
       <c r="D7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="5" t="s">
         <v>96</v>
       </c>
@@ -3386,11 +3413,11 @@
       <c r="D8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="5" t="s">
         <v>99</v>
       </c>
@@ -3414,11 +3441,11 @@
       <c r="D9" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="5" t="s">
         <v>148</v>
       </c>
@@ -3442,11 +3469,11 @@
       <c r="D10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="5" t="s">
         <v>102</v>
       </c>
@@ -3470,11 +3497,11 @@
       <c r="D11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="5" t="s">
         <v>150</v>
       </c>
@@ -3498,11 +3525,11 @@
       <c r="D12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="5" t="s">
         <v>111</v>
       </c>
@@ -3526,11 +3553,11 @@
       <c r="D13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="5" t="s">
         <v>113</v>
       </c>
@@ -3554,11 +3581,11 @@
       <c r="D14" s="33">
         <v>0</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="5"/>
       <c r="I14" s="7"/>
       <c r="J14" s="14"/>
@@ -3576,11 +3603,11 @@
       <c r="D15" s="33">
         <v>1</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="5"/>
       <c r="I15" s="7"/>
       <c r="J15" s="14"/>
@@ -3598,11 +3625,11 @@
       <c r="D16" s="33">
         <v>10000</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="5"/>
       <c r="I16" s="7"/>
       <c r="J16" s="14"/>
@@ -3620,11 +3647,11 @@
       <c r="D17" s="22">
         <v>10001</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="5"/>
       <c r="I17" s="7"/>
       <c r="J17" s="14"/>
@@ -3642,11 +3669,11 @@
       <c r="D18" s="22">
         <v>10001</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="5"/>
       <c r="I18" s="7"/>
       <c r="J18" s="14"/>
@@ -3664,11 +3691,11 @@
       <c r="D19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
       <c r="H19" s="5" t="s">
         <v>105</v>
       </c>
@@ -3692,11 +3719,11 @@
       <c r="D20" s="33">
         <v>0</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3"/>
       <c r="J20" s="14"/>
@@ -3714,11 +3741,11 @@
       <c r="D21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
       <c r="H21" s="4" t="s">
         <v>108</v>
       </c>
@@ -3742,11 +3769,11 @@
       <c r="D22" s="33">
         <v>0</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="5"/>
       <c r="I22" s="7"/>
       <c r="J22" s="14"/>
@@ -3764,32 +3791,17 @@
       <c r="D23" s="33">
         <v>0</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="5"/>
       <c r="I23" s="7"/>
       <c r="J23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E11:G11"/>
@@ -3798,6 +3810,21 @@
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3809,7 +3836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F83C687-AD3E-4BA3-A51F-3FEB61C781F2}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
@@ -3831,13 +3858,13 @@
       <c r="B1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
@@ -3849,13 +3876,13 @@
       <c r="B2" s="29">
         <v>10</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="2" t="s">
         <v>117</v>
       </c>
@@ -3873,13 +3900,13 @@
       <c r="B3" s="29">
         <v>11</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="5" t="s">
         <v>121</v>
       </c>

--- a/指令.xlsx
+++ b/指令.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\MultiCPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBDD6BF-F8B0-413B-86AA-FBA17AC2C842}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E53CC8E-083E-47FE-9B8B-237807E7DD47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2" xr2:uid="{558CF807-8AC3-4A38-B5A7-C417620ACF6F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3" xr2:uid="{558CF807-8AC3-4A38-B5A7-C417620ACF6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="201">
   <si>
     <t>Bit #</t>
   </si>
@@ -1634,6 +1635,172 @@
   </si>
   <si>
     <t>1.sb，lb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>opcode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>funct</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sImme</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sA0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sA</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sWRA0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sWRA</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sWRD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sLoad</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sByte</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dMemWe</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>regWe</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>brOP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>aluOP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x21</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x22</t>
+  </si>
+  <si>
+    <t>0x23</t>
+  </si>
+  <si>
+    <t>0x24</t>
+  </si>
+  <si>
+    <t>0x25</t>
+  </si>
+  <si>
+    <t>0x26</t>
+  </si>
+  <si>
+    <t>0x27</t>
+  </si>
+  <si>
+    <t>0x2a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2b</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x09</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0c</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0d</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0e</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0f</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x23</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x28</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0b</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1641,11 +1808,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="00000"/>
+    <numFmt numFmtId="179" formatCode="&quot;0x&quot;00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1704,8 +1872,40 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1752,6 +1952,27 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF00FF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -2057,12 +2278,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2204,6 +2437,15 @@
     <xf numFmtId="177" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2213,15 +2455,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2240,9 +2473,31 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="20% - 着色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2557,7 +2812,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="A3" sqref="A3:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3195,7 +3450,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3245,11 +3500,11 @@
       <c r="D2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="4" t="s">
         <v>78</v>
       </c>
@@ -3273,11 +3528,11 @@
       <c r="D3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="2" t="s">
         <v>82</v>
       </c>
@@ -3301,11 +3556,11 @@
       <c r="D4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="4" t="s">
         <v>85</v>
       </c>
@@ -3329,11 +3584,11 @@
       <c r="D5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="2" t="s">
         <v>89</v>
       </c>
@@ -3357,11 +3612,11 @@
       <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="4" t="s">
         <v>85</v>
       </c>
@@ -3385,11 +3640,11 @@
       <c r="D7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="5" t="s">
         <v>96</v>
       </c>
@@ -3413,11 +3668,11 @@
       <c r="D8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="5" t="s">
         <v>99</v>
       </c>
@@ -3441,11 +3696,11 @@
       <c r="D9" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="5" t="s">
         <v>148</v>
       </c>
@@ -3469,11 +3724,11 @@
       <c r="D10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="5" t="s">
         <v>102</v>
       </c>
@@ -3497,11 +3752,11 @@
       <c r="D11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="5" t="s">
         <v>150</v>
       </c>
@@ -3525,11 +3780,11 @@
       <c r="D12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="5" t="s">
         <v>111</v>
       </c>
@@ -3553,11 +3808,11 @@
       <c r="D13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="5" t="s">
         <v>113</v>
       </c>
@@ -3581,11 +3836,11 @@
       <c r="D14" s="33">
         <v>0</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="5"/>
       <c r="I14" s="7"/>
       <c r="J14" s="14"/>
@@ -3603,11 +3858,11 @@
       <c r="D15" s="33">
         <v>1</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="5"/>
       <c r="I15" s="7"/>
       <c r="J15" s="14"/>
@@ -3625,11 +3880,11 @@
       <c r="D16" s="33">
         <v>10000</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="5"/>
       <c r="I16" s="7"/>
       <c r="J16" s="14"/>
@@ -3647,11 +3902,11 @@
       <c r="D17" s="22">
         <v>10001</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="5"/>
       <c r="I17" s="7"/>
       <c r="J17" s="14"/>
@@ -3669,11 +3924,11 @@
       <c r="D18" s="22">
         <v>10001</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="5"/>
       <c r="I18" s="7"/>
       <c r="J18" s="14"/>
@@ -3691,11 +3946,11 @@
       <c r="D19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="5" t="s">
         <v>105</v>
       </c>
@@ -3719,11 +3974,11 @@
       <c r="D20" s="33">
         <v>0</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3"/>
       <c r="J20" s="14"/>
@@ -3741,11 +3996,11 @@
       <c r="D21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="4" t="s">
         <v>108</v>
       </c>
@@ -3769,11 +4024,11 @@
       <c r="D22" s="33">
         <v>0</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="5"/>
       <c r="I22" s="7"/>
       <c r="J22" s="14"/>
@@ -3791,17 +4046,29 @@
       <c r="D23" s="33">
         <v>0</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="52"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="5"/>
       <c r="I23" s="7"/>
       <c r="J23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E11:G11"/>
@@ -3810,20 +4077,8 @@
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E18:G18"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E19:G19"/>
     <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3836,8 +4091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F83C687-AD3E-4BA3-A51F-3FEB61C781F2}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3876,13 +4131,13 @@
       <c r="B2" s="29">
         <v>10</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>117</v>
       </c>
@@ -3900,13 +4155,13 @@
       <c r="B3" s="29">
         <v>11</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="5" t="s">
         <v>121</v>
       </c>
@@ -3927,4 +4182,897 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD3D7B8-5153-49EB-B668-3D44C9F446AF}">
+  <dimension ref="A1:AP19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="59"/>
+    <col min="2" max="42" width="6.625" style="59" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B1" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC1" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD1" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE1" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF1" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG1" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH1" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI1" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ1" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK1" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL1" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM1" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN1" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO1" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP1" s="62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="T2" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="U2" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="V2" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="W2" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="X2" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y2" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA2" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB2" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC2" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD2" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE2" s="63">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="63">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="63">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="63">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="63">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="63">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="63">
+        <v>5</v>
+      </c>
+      <c r="AM2" s="63">
+        <v>6</v>
+      </c>
+      <c r="AN2" s="63">
+        <v>7</v>
+      </c>
+      <c r="AO2" s="63">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="L3" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="N3" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="O3" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="P3" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q3" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="R3" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+    </row>
+    <row r="4" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+    </row>
+    <row r="5" spans="1:42" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A6" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="L6" s="59">
+        <v>0</v>
+      </c>
+      <c r="M6" s="59">
+        <v>0</v>
+      </c>
+      <c r="N6" s="59">
+        <v>0</v>
+      </c>
+      <c r="O6" s="59">
+        <v>0</v>
+      </c>
+      <c r="P6" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="59">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="59">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="59">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="59">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A7" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF7" s="59">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="59">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A8" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="S8" s="59">
+        <v>0</v>
+      </c>
+      <c r="T8" s="59">
+        <v>0</v>
+      </c>
+      <c r="U8" s="59">
+        <v>0</v>
+      </c>
+      <c r="V8" s="59">
+        <v>0</v>
+      </c>
+      <c r="W8" s="59">
+        <v>0</v>
+      </c>
+      <c r="X8" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A9" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="S9" s="59">
+        <v>1</v>
+      </c>
+      <c r="T9" s="59">
+        <v>1</v>
+      </c>
+      <c r="U9" s="59">
+        <v>1</v>
+      </c>
+      <c r="V9" s="59">
+        <v>1</v>
+      </c>
+      <c r="W9" s="59">
+        <v>1</v>
+      </c>
+      <c r="X9" s="59">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="59">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="59">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="59">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="59">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A10" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="X10" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="X12" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A13" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y13" s="59">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A14" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z14" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A15" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="59">
+        <v>1</v>
+      </c>
+      <c r="C15" s="59">
+        <v>1</v>
+      </c>
+      <c r="E15" s="59">
+        <v>1</v>
+      </c>
+      <c r="G15" s="59">
+        <v>1</v>
+      </c>
+      <c r="H15" s="59">
+        <v>1</v>
+      </c>
+      <c r="I15" s="59">
+        <v>1</v>
+      </c>
+      <c r="J15" s="59">
+        <v>1</v>
+      </c>
+      <c r="K15" s="59">
+        <v>1</v>
+      </c>
+      <c r="M15" s="59">
+        <v>1</v>
+      </c>
+      <c r="N15" s="59">
+        <v>1</v>
+      </c>
+      <c r="O15" s="59">
+        <v>1</v>
+      </c>
+      <c r="P15" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="59">
+        <v>1</v>
+      </c>
+      <c r="R15" s="59">
+        <v>1</v>
+      </c>
+      <c r="S15" s="59">
+        <v>1</v>
+      </c>
+      <c r="U15" s="59">
+        <v>1</v>
+      </c>
+      <c r="V15" s="59">
+        <v>1</v>
+      </c>
+      <c r="W15" s="59">
+        <v>1</v>
+      </c>
+      <c r="X15" s="59">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="59">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A16" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA16" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A17" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="59">
+        <v>1</v>
+      </c>
+      <c r="C17" s="59">
+        <v>1</v>
+      </c>
+      <c r="D17" s="59">
+        <v>1</v>
+      </c>
+      <c r="E17" s="59">
+        <v>1</v>
+      </c>
+      <c r="F17" s="59">
+        <v>1</v>
+      </c>
+      <c r="G17" s="59">
+        <v>1</v>
+      </c>
+      <c r="H17" s="59">
+        <v>1</v>
+      </c>
+      <c r="I17" s="59">
+        <v>1</v>
+      </c>
+      <c r="J17" s="59">
+        <v>1</v>
+      </c>
+      <c r="K17" s="59">
+        <v>1</v>
+      </c>
+      <c r="L17" s="59">
+        <v>1</v>
+      </c>
+      <c r="M17" s="59">
+        <v>1</v>
+      </c>
+      <c r="N17" s="59">
+        <v>1</v>
+      </c>
+      <c r="O17" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="59">
+        <v>1</v>
+      </c>
+      <c r="R17" s="59">
+        <v>1</v>
+      </c>
+      <c r="S17" s="59">
+        <v>1</v>
+      </c>
+      <c r="T17" s="59">
+        <v>1</v>
+      </c>
+      <c r="U17" s="59">
+        <v>1</v>
+      </c>
+      <c r="V17" s="59">
+        <v>1</v>
+      </c>
+      <c r="W17" s="59">
+        <v>1</v>
+      </c>
+      <c r="X17" s="59">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="59">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="59">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="59">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="59">
+        <v>1</v>
+      </c>
+      <c r="C18" s="59">
+        <v>1</v>
+      </c>
+      <c r="D18" s="59">
+        <v>2</v>
+      </c>
+      <c r="E18" s="59">
+        <v>2</v>
+      </c>
+      <c r="F18" s="59">
+        <v>3</v>
+      </c>
+      <c r="G18" s="59">
+        <v>4</v>
+      </c>
+      <c r="H18" s="59">
+        <v>5</v>
+      </c>
+      <c r="I18" s="59">
+        <v>6</v>
+      </c>
+      <c r="J18" s="59">
+        <v>7</v>
+      </c>
+      <c r="K18" s="59">
+        <v>8</v>
+      </c>
+      <c r="L18" s="59">
+        <v>9</v>
+      </c>
+      <c r="M18" s="59">
+        <v>10</v>
+      </c>
+      <c r="N18" s="59">
+        <v>11</v>
+      </c>
+      <c r="O18" s="59">
+        <v>9</v>
+      </c>
+      <c r="P18" s="59">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="59">
+        <v>11</v>
+      </c>
+      <c r="S18" s="59">
+        <v>1</v>
+      </c>
+      <c r="T18" s="59">
+        <v>1</v>
+      </c>
+      <c r="U18" s="59">
+        <v>3</v>
+      </c>
+      <c r="V18" s="59">
+        <v>4</v>
+      </c>
+      <c r="W18" s="59">
+        <v>5</v>
+      </c>
+      <c r="X18" s="59">
+        <v>12</v>
+      </c>
+      <c r="AG18" s="59">
+        <v>13</v>
+      </c>
+      <c r="AH18" s="59">
+        <v>13</v>
+      </c>
+      <c r="AI18" s="59">
+        <v>13</v>
+      </c>
+      <c r="AP18" s="59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A19" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="R19" s="59">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="59">
+        <v>6</v>
+      </c>
+      <c r="AF19" s="59">
+        <v>7</v>
+      </c>
+      <c r="AG19" s="59">
+        <v>8</v>
+      </c>
+      <c r="AH19" s="59">
+        <v>4</v>
+      </c>
+      <c r="AI19" s="59">
+        <v>5</v>
+      </c>
+      <c r="AJ19" s="59">
+        <v>10</v>
+      </c>
+      <c r="AK19" s="59">
+        <v>9</v>
+      </c>
+      <c r="AL19" s="59">
+        <v>11</v>
+      </c>
+      <c r="AM19" s="59">
+        <v>12</v>
+      </c>
+      <c r="AN19" s="59">
+        <v>13</v>
+      </c>
+      <c r="AO19" s="59">
+        <v>2</v>
+      </c>
+      <c r="AP19" s="59">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>